--- a/Code/Results/Cases/Case_8_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.86568715164846</v>
+        <v>13.92460078150438</v>
       </c>
       <c r="C2">
-        <v>11.66822024173266</v>
+        <v>12.43239316856762</v>
       </c>
       <c r="D2">
-        <v>5.024880934236697</v>
+        <v>5.737195916267472</v>
       </c>
       <c r="E2">
-        <v>10.0042005290957</v>
+        <v>10.56647701900824</v>
       </c>
       <c r="F2">
-        <v>35.22983171268316</v>
+        <v>32.49356796540796</v>
       </c>
       <c r="G2">
-        <v>2.132895695600498</v>
+        <v>7.739048306120614</v>
       </c>
       <c r="H2">
-        <v>2.849136276503887</v>
+        <v>2.422278140733694</v>
       </c>
       <c r="I2">
-        <v>3.706532891071368</v>
+        <v>3.198768361779118</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.85140080412939</v>
+        <v>19.50842551407731</v>
       </c>
       <c r="L2">
-        <v>6.883082532216042</v>
+        <v>15.73295184503716</v>
       </c>
       <c r="M2">
-        <v>14.14590774996387</v>
+        <v>13.26125481355946</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.016002118773021</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.70070759061439</v>
       </c>
       <c r="P2">
-        <v>15.11970821582436</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>14.17155055575363</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.96172215573395</v>
+        <v>13.07387240307719</v>
       </c>
       <c r="C3">
-        <v>10.97365606861471</v>
+        <v>11.6250277703771</v>
       </c>
       <c r="D3">
-        <v>4.725851213340702</v>
+        <v>5.422635908390046</v>
       </c>
       <c r="E3">
-        <v>9.431194902534326</v>
+        <v>10.01445728834604</v>
       </c>
       <c r="F3">
-        <v>34.17781213110054</v>
+        <v>31.53694912890244</v>
       </c>
       <c r="G3">
-        <v>2.138325694893099</v>
+        <v>8.409682745139554</v>
       </c>
       <c r="H3">
-        <v>3.132487308507504</v>
+        <v>2.665871955863396</v>
       </c>
       <c r="I3">
-        <v>3.918204903762965</v>
+        <v>3.361549452188782</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.5177144677944</v>
+        <v>19.26087399007447</v>
       </c>
       <c r="L3">
-        <v>6.622838374979348</v>
+        <v>15.68522900633793</v>
       </c>
       <c r="M3">
-        <v>13.36650932655245</v>
+        <v>12.94664742930901</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.781062612154214</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.90842611711258</v>
       </c>
       <c r="P3">
-        <v>15.20441235239267</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>14.26971080138661</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.37605501555064</v>
+        <v>12.5195926347486</v>
       </c>
       <c r="C4">
-        <v>10.53292489786407</v>
+        <v>11.10744927986059</v>
       </c>
       <c r="D4">
-        <v>4.534349310589118</v>
+        <v>5.222643491825064</v>
       </c>
       <c r="E4">
-        <v>9.062547206873589</v>
+        <v>9.660688235619336</v>
       </c>
       <c r="F4">
-        <v>33.52042962077798</v>
+        <v>30.93475967080688</v>
       </c>
       <c r="G4">
-        <v>2.14176519227211</v>
+        <v>8.835020054318921</v>
       </c>
       <c r="H4">
-        <v>3.312522328874286</v>
+        <v>2.820915054251655</v>
       </c>
       <c r="I4">
-        <v>4.053111414904344</v>
+        <v>3.465866665738154</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.31156833811924</v>
+        <v>19.10557151679065</v>
       </c>
       <c r="L4">
-        <v>6.457170963055919</v>
+        <v>15.64994983133889</v>
       </c>
       <c r="M4">
-        <v>12.86717213875114</v>
+        <v>12.76566324043756</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.631833316570803</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.39714059378511</v>
       </c>
       <c r="P4">
-        <v>15.25679320646028</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>14.32982791584151</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.12291362790664</v>
+        <v>12.27911071752661</v>
       </c>
       <c r="C5">
-        <v>10.35657523127346</v>
+        <v>10.8975128321525</v>
       </c>
       <c r="D5">
-        <v>4.45815009599188</v>
+        <v>5.142968550957786</v>
       </c>
       <c r="E5">
-        <v>8.909583327420902</v>
+        <v>9.514236835660652</v>
       </c>
       <c r="F5">
-        <v>33.23562816808101</v>
+        <v>30.67213287658466</v>
       </c>
       <c r="G5">
-        <v>2.143204107701337</v>
+        <v>9.013083490489457</v>
       </c>
       <c r="H5">
-        <v>3.387835561028851</v>
+        <v>2.885812130265501</v>
       </c>
       <c r="I5">
-        <v>4.111974348423169</v>
+        <v>3.512623620694753</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.21664094026895</v>
+        <v>19.03154203443183</v>
       </c>
       <c r="L5">
-        <v>6.387687910353381</v>
+        <v>15.62564800657491</v>
       </c>
       <c r="M5">
-        <v>12.65636824365049</v>
+        <v>12.68857913233114</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.569337617844277</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.18044511797599</v>
       </c>
       <c r="P5">
-        <v>15.27502011113911</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>14.35161561720103</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.07201120521518</v>
+        <v>12.23061002201129</v>
       </c>
       <c r="C6">
-        <v>10.33528179079421</v>
+        <v>10.87012670827998</v>
       </c>
       <c r="D6">
-        <v>4.450021528182837</v>
+        <v>5.133881228755821</v>
       </c>
       <c r="E6">
-        <v>8.885703686485019</v>
+        <v>9.491352197857358</v>
       </c>
       <c r="F6">
-        <v>33.17066388873444</v>
+        <v>30.61151234362294</v>
       </c>
       <c r="G6">
-        <v>2.143457119052352</v>
+        <v>9.044402958355127</v>
       </c>
       <c r="H6">
-        <v>3.400918787917535</v>
+        <v>2.897061537986544</v>
       </c>
       <c r="I6">
-        <v>4.125171901157742</v>
+        <v>3.524484355119871</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.18783822848177</v>
+        <v>19.00705667068805</v>
       </c>
       <c r="L6">
-        <v>6.375411774224396</v>
+        <v>15.61125289608973</v>
       </c>
       <c r="M6">
-        <v>12.61829206181009</v>
+        <v>12.66787194549157</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.558309023195634</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.14138554104678</v>
       </c>
       <c r="P6">
-        <v>15.27412966089612</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>14.35196557392192</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.35018753107122</v>
+        <v>12.47626340714573</v>
       </c>
       <c r="C7">
-        <v>10.55244702408665</v>
+        <v>11.07535537902147</v>
       </c>
       <c r="D7">
-        <v>4.5457243889852</v>
+        <v>5.255141053883254</v>
       </c>
       <c r="E7">
-        <v>9.06523752892379</v>
+        <v>9.67165732487851</v>
       </c>
       <c r="F7">
-        <v>33.46923749712277</v>
+        <v>30.79724790427752</v>
       </c>
       <c r="G7">
-        <v>2.141817975930774</v>
+        <v>8.890202694902843</v>
       </c>
       <c r="H7">
-        <v>3.314835359480259</v>
+        <v>2.825122478356515</v>
       </c>
       <c r="I7">
-        <v>4.062790132322553</v>
+        <v>3.479452301140249</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.27491008757951</v>
+        <v>19.02411064687001</v>
       </c>
       <c r="L7">
-        <v>6.45448375174719</v>
+        <v>15.5825161179391</v>
       </c>
       <c r="M7">
-        <v>12.85691360901689</v>
+        <v>12.70975991535534</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.626269667139077</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.3587994026277</v>
       </c>
       <c r="P7">
-        <v>15.24637461969541</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.30703683282166</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.53274930659129</v>
+        <v>13.55440918954728</v>
       </c>
       <c r="C8">
-        <v>11.45863941565689</v>
+        <v>12.02989479288629</v>
       </c>
       <c r="D8">
-        <v>4.938647486601024</v>
+        <v>5.713522935202865</v>
       </c>
       <c r="E8">
-        <v>9.815980927810127</v>
+        <v>10.41141322921027</v>
       </c>
       <c r="F8">
-        <v>34.80931946023765</v>
+        <v>31.82712093603508</v>
       </c>
       <c r="G8">
-        <v>2.134788815565805</v>
+        <v>8.196831926975239</v>
       </c>
       <c r="H8">
-        <v>2.947255207244388</v>
+        <v>2.513739480393963</v>
       </c>
       <c r="I8">
-        <v>3.789902514019565</v>
+        <v>3.274951269289187</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>21.69079390194339</v>
+        <v>19.22803394248828</v>
       </c>
       <c r="L8">
-        <v>6.792387648970257</v>
+        <v>15.5609285771445</v>
       </c>
       <c r="M8">
-        <v>13.87233323159103</v>
+        <v>13.00945031240217</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.924109624485836</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.3365118930735</v>
       </c>
       <c r="P8">
-        <v>15.13495077340998</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>14.14884394274669</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.64182690602239</v>
+        <v>15.54488089149659</v>
       </c>
       <c r="C9">
-        <v>13.08277032293093</v>
+        <v>13.87606614857417</v>
       </c>
       <c r="D9">
-        <v>5.625687732297822</v>
+        <v>6.454635604118847</v>
       </c>
       <c r="E9">
-        <v>11.14580056212379</v>
+        <v>11.70250411976398</v>
       </c>
       <c r="F9">
-        <v>37.41535901559037</v>
+        <v>34.12260470189263</v>
       </c>
       <c r="G9">
-        <v>2.121756965051291</v>
+        <v>6.666913900167485</v>
       </c>
       <c r="H9">
-        <v>2.270909464408094</v>
+        <v>1.935636497258121</v>
       </c>
       <c r="I9">
-        <v>3.278373755858718</v>
+        <v>2.882344133995308</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.55587668965207</v>
+        <v>19.83114133146279</v>
       </c>
       <c r="L9">
-        <v>7.409884001131305</v>
+        <v>15.6608224544636</v>
       </c>
       <c r="M9">
-        <v>15.70500653349555</v>
+        <v>13.84538941451523</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.481279655798851</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.16848570569713</v>
       </c>
       <c r="P9">
-        <v>14.93805412109282</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>13.90316628966497</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.98501787056126</v>
+        <v>16.75884635962668</v>
       </c>
       <c r="C10">
-        <v>14.1247135509309</v>
+        <v>14.81584302808301</v>
       </c>
       <c r="D10">
-        <v>6.021372207764288</v>
+        <v>6.990021022862959</v>
       </c>
       <c r="E10">
-        <v>11.81503158060935</v>
+        <v>12.38959393973663</v>
       </c>
       <c r="F10">
-        <v>38.96197020481915</v>
+        <v>35.01246800428231</v>
       </c>
       <c r="G10">
-        <v>2.112876301432525</v>
+        <v>6.591130339743493</v>
       </c>
       <c r="H10">
-        <v>1.840055607508235</v>
+        <v>1.58641477559908</v>
       </c>
       <c r="I10">
-        <v>2.939223621604672</v>
+        <v>2.63913080335997</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.0412415876913</v>
+        <v>19.89102157634943</v>
       </c>
       <c r="L10">
-        <v>7.713760063258382</v>
+        <v>15.43722137193251</v>
       </c>
       <c r="M10">
-        <v>16.88229449493543</v>
+        <v>14.21322145174357</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.73235209732593</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.28615561040976</v>
       </c>
       <c r="P10">
-        <v>14.74848824092498</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.61800528681319</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.15197782824043</v>
+        <v>16.81038714736737</v>
       </c>
       <c r="C11">
-        <v>13.88732729255601</v>
+        <v>14.09541232046143</v>
       </c>
       <c r="D11">
-        <v>5.571418705292901</v>
+        <v>6.738363031015196</v>
       </c>
       <c r="E11">
-        <v>10.19323600837677</v>
+        <v>10.84197630625538</v>
       </c>
       <c r="F11">
-        <v>37.24617072895206</v>
+        <v>32.46674436130498</v>
       </c>
       <c r="G11">
-        <v>2.110840415269187</v>
+        <v>9.488513208370076</v>
       </c>
       <c r="H11">
-        <v>2.821658760484288</v>
+        <v>2.684453385309232</v>
       </c>
       <c r="I11">
-        <v>2.879640736067889</v>
+        <v>2.62467729525097</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.14113402758074</v>
+        <v>18.59145395220445</v>
       </c>
       <c r="L11">
-        <v>6.872921337843923</v>
+        <v>14.37610719964394</v>
       </c>
       <c r="M11">
-        <v>16.89986438131231</v>
+        <v>13.33391382941072</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.869614064419344</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.09946673983522</v>
       </c>
       <c r="P11">
-        <v>14.30443400558315</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.17086992882223</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.04203635054758</v>
+        <v>16.68177011517758</v>
       </c>
       <c r="C12">
-        <v>13.44652421784532</v>
+        <v>13.38739116168264</v>
       </c>
       <c r="D12">
-        <v>5.091426266378297</v>
+        <v>6.332234335191482</v>
       </c>
       <c r="E12">
-        <v>8.714412273728465</v>
+        <v>9.392861987916177</v>
       </c>
       <c r="F12">
-        <v>35.51723170707277</v>
+        <v>30.45750861509937</v>
       </c>
       <c r="G12">
-        <v>2.110797821740427</v>
+        <v>11.15502958199863</v>
       </c>
       <c r="H12">
-        <v>4.203731993212732</v>
+        <v>4.11293032965632</v>
       </c>
       <c r="I12">
-        <v>2.878333638434299</v>
+        <v>2.631176923371104</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.32680976138617</v>
+        <v>17.69712975026834</v>
       </c>
       <c r="L12">
-        <v>6.176721625231717</v>
+        <v>13.69868515363856</v>
       </c>
       <c r="M12">
-        <v>16.67574347082962</v>
+        <v>12.66868893822764</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.179983179747136</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.79183241245669</v>
       </c>
       <c r="P12">
-        <v>14.00790299419082</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.9534486623443</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.68226958963729</v>
+        <v>16.41374489040947</v>
       </c>
       <c r="C13">
-        <v>12.81531743133115</v>
+        <v>12.73994626081325</v>
       </c>
       <c r="D13">
-        <v>4.560192746981985</v>
+        <v>5.74201435799112</v>
       </c>
       <c r="E13">
-        <v>7.251640894853272</v>
+        <v>7.915474314316557</v>
       </c>
       <c r="F13">
-        <v>33.58077678498501</v>
+        <v>28.81997107275161</v>
       </c>
       <c r="G13">
-        <v>2.112332145318068</v>
+        <v>10.86877456476659</v>
       </c>
       <c r="H13">
-        <v>5.636903867613511</v>
+        <v>5.560163067920728</v>
       </c>
       <c r="I13">
-        <v>2.937004889542376</v>
+        <v>2.670492296200321</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.47242707315303</v>
+        <v>17.09002672776314</v>
       </c>
       <c r="L13">
-        <v>5.565424565476242</v>
+        <v>13.2768095694505</v>
       </c>
       <c r="M13">
-        <v>16.23597721245755</v>
+        <v>12.16476541965857</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.602714637006363</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.40750174914707</v>
       </c>
       <c r="P13">
-        <v>13.79273678501392</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.87256903336792</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.30724572819637</v>
+        <v>16.15291810763146</v>
       </c>
       <c r="C14">
-        <v>12.28119229187102</v>
+        <v>12.30434176193146</v>
       </c>
       <c r="D14">
-        <v>4.161882797781881</v>
+        <v>5.245546369314204</v>
       </c>
       <c r="E14">
-        <v>6.262538158994663</v>
+        <v>6.900670931988569</v>
       </c>
       <c r="F14">
-        <v>32.11074696091417</v>
+        <v>27.80514948488649</v>
       </c>
       <c r="G14">
-        <v>2.114114709516967</v>
+        <v>9.842322758970605</v>
       </c>
       <c r="H14">
-        <v>6.654092145376287</v>
+        <v>6.579764681633879</v>
       </c>
       <c r="I14">
-        <v>3.007846600643962</v>
+        <v>2.71686068036866</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.84871053442986</v>
+        <v>16.77277542532337</v>
       </c>
       <c r="L14">
-        <v>5.209020655435618</v>
+        <v>13.07586165530983</v>
       </c>
       <c r="M14">
-        <v>15.8228689640243</v>
+        <v>11.87160641181664</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.280814755168136</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.09422636584034</v>
       </c>
       <c r="P14">
-        <v>13.68144272835135</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.86442909377979</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.15435877396283</v>
+        <v>16.04922303926013</v>
       </c>
       <c r="C15">
-        <v>12.11560073889097</v>
+        <v>12.20822681438858</v>
       </c>
       <c r="D15">
-        <v>4.056363603900477</v>
+        <v>5.092230030030568</v>
       </c>
       <c r="E15">
-        <v>6.022559933546463</v>
+        <v>6.65021176755473</v>
       </c>
       <c r="F15">
-        <v>31.69443716322985</v>
+        <v>27.60374670372104</v>
       </c>
       <c r="G15">
-        <v>2.114915059919154</v>
+        <v>9.269213276826219</v>
       </c>
       <c r="H15">
-        <v>6.893004001210301</v>
+        <v>6.81699914456362</v>
       </c>
       <c r="I15">
-        <v>3.042881539249388</v>
+        <v>2.741385006491931</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.67762828660276</v>
+        <v>16.73283051741887</v>
       </c>
       <c r="L15">
-        <v>5.130515900103569</v>
+        <v>13.06091817184494</v>
       </c>
       <c r="M15">
-        <v>15.67293838939927</v>
+        <v>11.81861993820428</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.214519730934232</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.99372443288375</v>
       </c>
       <c r="P15">
-        <v>13.66648802916635</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.87901473298337</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.63729486271904</v>
+        <v>15.70269962288796</v>
       </c>
       <c r="C16">
-        <v>11.77148759263184</v>
+        <v>12.21852016012203</v>
       </c>
       <c r="D16">
-        <v>3.965751979085666</v>
+        <v>4.805607139790633</v>
       </c>
       <c r="E16">
-        <v>5.937507962053202</v>
+        <v>6.53530275383061</v>
       </c>
       <c r="F16">
-        <v>31.33362262751828</v>
+        <v>28.10022924063593</v>
       </c>
       <c r="G16">
-        <v>2.118394801944177</v>
+        <v>7.03198127426849</v>
       </c>
       <c r="H16">
-        <v>6.718633358202249</v>
+        <v>6.619926707441394</v>
       </c>
       <c r="I16">
-        <v>3.179984776017335</v>
+        <v>2.828518104585571</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.61000909500159</v>
+        <v>17.12881551367083</v>
       </c>
       <c r="L16">
-        <v>5.099553000745003</v>
+        <v>13.42099399514375</v>
       </c>
       <c r="M16">
-        <v>15.24045091142273</v>
+        <v>12.0238716453824</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.217402407681715</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.75821999113357</v>
       </c>
       <c r="P16">
-        <v>13.7865894759463</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.04136853876278</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.4415952942588</v>
+        <v>15.55349853707146</v>
       </c>
       <c r="C17">
-        <v>11.80104550996739</v>
+        <v>12.41522925006783</v>
       </c>
       <c r="D17">
-        <v>4.117687549666105</v>
+        <v>4.882462860403653</v>
       </c>
       <c r="E17">
-        <v>6.398847389520822</v>
+        <v>6.982012502040118</v>
       </c>
       <c r="F17">
-        <v>31.85398108571566</v>
+        <v>28.93702734552683</v>
       </c>
       <c r="G17">
-        <v>2.120132248869809</v>
+        <v>6.511877414056882</v>
       </c>
       <c r="H17">
-        <v>6.020111842948747</v>
+        <v>5.89785909233474</v>
       </c>
       <c r="I17">
-        <v>3.248716072079215</v>
+        <v>2.873885238797429</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.89065480855652</v>
+        <v>17.55751643957079</v>
       </c>
       <c r="L17">
-        <v>5.25091927525535</v>
+        <v>13.78395614396708</v>
       </c>
       <c r="M17">
-        <v>15.13338882957147</v>
+        <v>12.29453012649132</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.37653953602653</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.7152931000315</v>
       </c>
       <c r="P17">
-        <v>13.93496197456896</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.17908147794709</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.52248011688897</v>
+        <v>15.60950948677504</v>
       </c>
       <c r="C18">
-        <v>12.14208843416224</v>
+        <v>12.87944871493202</v>
       </c>
       <c r="D18">
-        <v>4.491184298125854</v>
+        <v>5.238527363921686</v>
       </c>
       <c r="E18">
-        <v>7.470560265061262</v>
+        <v>8.033943542642117</v>
       </c>
       <c r="F18">
-        <v>33.22808541628752</v>
+        <v>30.35701902816393</v>
       </c>
       <c r="G18">
-        <v>2.120460374764138</v>
+        <v>6.354680766801668</v>
       </c>
       <c r="H18">
-        <v>4.821898679039712</v>
+        <v>4.666205935803673</v>
       </c>
       <c r="I18">
-        <v>3.253747090897596</v>
+        <v>2.871016537959928</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.53282582510118</v>
+        <v>18.17650120343056</v>
       </c>
       <c r="L18">
-        <v>5.66096966101641</v>
+        <v>14.27262372896052</v>
       </c>
       <c r="M18">
-        <v>15.30302658007984</v>
+        <v>12.73922405152089</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.775962659977128</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.89045897420195</v>
       </c>
       <c r="P18">
-        <v>14.14438244037998</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.33760940334862</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.78349001484864</v>
+        <v>15.80790841914453</v>
       </c>
       <c r="C19">
-        <v>12.73200994280994</v>
+        <v>13.56235016639353</v>
       </c>
       <c r="D19">
-        <v>5.029834218659075</v>
+        <v>5.792008347216175</v>
       </c>
       <c r="E19">
-        <v>9.020582275322299</v>
+        <v>9.564432825367302</v>
       </c>
       <c r="F19">
-        <v>35.10914262706259</v>
+        <v>32.1322105783203</v>
       </c>
       <c r="G19">
-        <v>2.119579738722779</v>
+        <v>6.208299693299538</v>
       </c>
       <c r="H19">
-        <v>3.420459782811867</v>
+        <v>3.211363812068831</v>
       </c>
       <c r="I19">
-        <v>3.223011331204234</v>
+        <v>2.849525902568505</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.36927189356175</v>
+        <v>18.89283828243336</v>
       </c>
       <c r="L19">
-        <v>6.338821006921353</v>
+        <v>14.81830958417414</v>
       </c>
       <c r="M19">
-        <v>15.66599055785892</v>
+        <v>13.28198645744174</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.431675154637763</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.23556979797733</v>
       </c>
       <c r="P19">
-        <v>14.39418485299209</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.51197343436273</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.58508969796659</v>
+        <v>16.44893391034518</v>
       </c>
       <c r="C20">
-        <v>13.90489295430492</v>
+        <v>14.75695869202457</v>
       </c>
       <c r="D20">
-        <v>5.94629977923348</v>
+        <v>6.812855145502946</v>
       </c>
       <c r="E20">
-        <v>11.644249393951</v>
+        <v>12.18893790842102</v>
       </c>
       <c r="F20">
-        <v>38.41986450387401</v>
+        <v>34.92389818707044</v>
       </c>
       <c r="G20">
-        <v>2.11528053976979</v>
+        <v>6.009203102361181</v>
       </c>
       <c r="H20">
-        <v>1.954645824984998</v>
+        <v>1.671555758751021</v>
       </c>
       <c r="I20">
-        <v>3.058403915260608</v>
+        <v>2.732987626529322</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.80724783560142</v>
+        <v>19.93277236255539</v>
       </c>
       <c r="L20">
-        <v>7.62547985291914</v>
+        <v>15.53772676736513</v>
       </c>
       <c r="M20">
-        <v>16.55896508439728</v>
+        <v>14.15973143327933</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.667817562047323</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.05211669128445</v>
       </c>
       <c r="P20">
-        <v>14.76489983532997</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.71155604268662</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.65189025272689</v>
+        <v>17.13777162103304</v>
       </c>
       <c r="C21">
-        <v>14.7993731620368</v>
+        <v>14.90856443991313</v>
       </c>
       <c r="D21">
-        <v>6.345310359811908</v>
+        <v>7.65272870695234</v>
       </c>
       <c r="E21">
-        <v>12.48178054686107</v>
+        <v>13.17004287433323</v>
       </c>
       <c r="F21">
-        <v>40.03339105677294</v>
+        <v>34.5885058017821</v>
       </c>
       <c r="G21">
-        <v>2.108221463109466</v>
+        <v>10.80229999208773</v>
       </c>
       <c r="H21">
-        <v>1.572668388323047</v>
+        <v>1.730734083892974</v>
       </c>
       <c r="I21">
-        <v>2.786622074854525</v>
+        <v>2.570515892609291</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.39239681061842</v>
+        <v>19.36128653918418</v>
       </c>
       <c r="L21">
-        <v>8.033796907558772</v>
+        <v>14.92474183962554</v>
       </c>
       <c r="M21">
-        <v>17.51926728330559</v>
+        <v>13.95999246391122</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.984683828631015</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.57948132226471</v>
       </c>
       <c r="P21">
-        <v>14.69140023822027</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.32695130238662</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.31891100269284</v>
+        <v>17.55065266959089</v>
       </c>
       <c r="C22">
-        <v>15.33698075889348</v>
+        <v>14.90750087186243</v>
       </c>
       <c r="D22">
-        <v>6.548936489402922</v>
+        <v>8.157422973159516</v>
       </c>
       <c r="E22">
-        <v>12.89246274743008</v>
+        <v>13.68363851428046</v>
       </c>
       <c r="F22">
-        <v>40.98165307366621</v>
+        <v>34.19600483814244</v>
       </c>
       <c r="G22">
-        <v>2.103756781085524</v>
+        <v>15.35412353286172</v>
       </c>
       <c r="H22">
-        <v>1.771653780009814</v>
+        <v>1.893317754975471</v>
       </c>
       <c r="I22">
-        <v>2.603791004457281</v>
+        <v>2.564887433106686</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.74954744666076</v>
+        <v>18.92216183059683</v>
       </c>
       <c r="L22">
-        <v>8.235659589277027</v>
+        <v>14.49103885907302</v>
       </c>
       <c r="M22">
-        <v>18.10418381865665</v>
+        <v>13.77304221189911</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.127626067800268</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.86358893809647</v>
       </c>
       <c r="P22">
-        <v>14.63561544696735</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>13.07266643357887</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.98510794211024</v>
+        <v>17.38605204085146</v>
       </c>
       <c r="C23">
-        <v>15.03308903298023</v>
+        <v>14.98572143585856</v>
       </c>
       <c r="D23">
-        <v>6.430178429128196</v>
+        <v>7.833713577238824</v>
       </c>
       <c r="E23">
-        <v>12.67050575587516</v>
+        <v>13.38857276720322</v>
       </c>
       <c r="F23">
-        <v>40.52371716361882</v>
+        <v>34.64299981164409</v>
       </c>
       <c r="G23">
-        <v>2.106100313481825</v>
+        <v>12.11772136507798</v>
       </c>
       <c r="H23">
-        <v>1.65434260905378</v>
+        <v>1.811590544668444</v>
       </c>
       <c r="I23">
-        <v>2.688268984306124</v>
+        <v>2.511649955007688</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.59665714802651</v>
+        <v>19.29742326201457</v>
       </c>
       <c r="L23">
-        <v>8.130122380705433</v>
+        <v>14.82132763594682</v>
       </c>
       <c r="M23">
-        <v>17.80065428269821</v>
+        <v>13.98602208121243</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.059436768710583</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.77330534945599</v>
       </c>
       <c r="P23">
-        <v>14.67724490350384</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.24090285630204</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.6352539371878</v>
+        <v>16.49306616346606</v>
       </c>
       <c r="C24">
-        <v>13.92687410825751</v>
+        <v>14.79501182105301</v>
       </c>
       <c r="D24">
-        <v>5.98208159569555</v>
+        <v>6.848773154891627</v>
       </c>
       <c r="E24">
-        <v>11.80596189799554</v>
+        <v>12.34937359102344</v>
       </c>
       <c r="F24">
-        <v>38.68483565711377</v>
+        <v>35.18515073284038</v>
       </c>
       <c r="G24">
-        <v>2.115163599658112</v>
+        <v>5.970392626195272</v>
       </c>
       <c r="H24">
-        <v>1.930088889054454</v>
+        <v>1.646418194468119</v>
       </c>
       <c r="I24">
-        <v>3.036878883374596</v>
+        <v>2.707468915407262</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.95545106841692</v>
+        <v>20.06971593205919</v>
       </c>
       <c r="L24">
-        <v>7.716157254472068</v>
+        <v>15.64298759250846</v>
       </c>
       <c r="M24">
-        <v>16.59911694955768</v>
+        <v>14.26197031124096</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.757020542801139</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.09281483258513</v>
       </c>
       <c r="P24">
-        <v>14.81730916638205</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.75222212591869</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.06357863737432</v>
+        <v>15.00877469931148</v>
       </c>
       <c r="C25">
-        <v>12.68975589348179</v>
+        <v>13.48742808268187</v>
       </c>
       <c r="D25">
-        <v>5.465593985616966</v>
+        <v>6.250856533899052</v>
       </c>
       <c r="E25">
-        <v>10.80786385718094</v>
+        <v>11.36288680542283</v>
       </c>
       <c r="F25">
-        <v>36.64481421349047</v>
+        <v>33.55715891202278</v>
       </c>
       <c r="G25">
-        <v>2.125254754778717</v>
+        <v>6.942299389747833</v>
       </c>
       <c r="H25">
-        <v>2.451240859387864</v>
+        <v>2.086346006348364</v>
       </c>
       <c r="I25">
-        <v>3.429306233729216</v>
+        <v>3.002050181477556</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.26274194606413</v>
+        <v>19.67897140445823</v>
       </c>
       <c r="L25">
-        <v>7.245342611324529</v>
+        <v>15.64496433494895</v>
       </c>
       <c r="M25">
-        <v>15.21655968830119</v>
+        <v>13.61719731018456</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.33667477824203</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.71798893813729</v>
       </c>
       <c r="P25">
-        <v>14.97240589524254</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.97395858340465</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
